--- a/Prototype/evaluation.xlsx
+++ b/Prototype/evaluation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B217128F-7E14-49CF-95D5-72C4A74BC901}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C28D6-462C-47B0-9EC6-B785229BA70B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1100" windowWidth="13700" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,47 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Jacky/Philipp</t>
   </si>
   <si>
-    <t>OS</t>
-  </si>
-  <si>
     <t>Edge</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Window 10 Home Build 1803</t>
-  </si>
-  <si>
     <t>Firefox</t>
   </si>
   <si>
-    <t xml:space="preserve">Opera </t>
-  </si>
-  <si>
     <t>Safari</t>
   </si>
   <si>
     <t>72.0.3626.109</t>
   </si>
   <si>
-    <t>72.0.3626.119</t>
-  </si>
-  <si>
-    <t>Grafikkarte</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>64bit</t>
-  </si>
-  <si>
     <t>NVIDA GTX 1050</t>
   </si>
   <si>
@@ -73,9 +52,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>auf allen Browsern</t>
-  </si>
-  <si>
     <t>Me</t>
   </si>
   <si>
@@ -85,7 +61,58 @@
     <t>Intel(R) HD Graphics 520</t>
   </si>
   <si>
-    <t>Windows 10 Home Build</t>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Self Build, 64 bit</t>
+  </si>
+  <si>
+    <t>Acer Swift3, 64 bit</t>
+  </si>
+  <si>
+    <t>Graphic Card</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Windows 10 Home, Build 1803</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Samsung, 64 bit</t>
+  </si>
+  <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>18.03.2019 (09:17)</t>
+  </si>
+  <si>
+    <t>05.03.2019 (10:53)</t>
+  </si>
+  <si>
+    <t>06.03.2019 (09:36)</t>
+  </si>
+  <si>
+    <t>72.0.3626.121</t>
+  </si>
+  <si>
+    <t>17.17134</t>
+  </si>
+  <si>
+    <t>18.03.2019 (09:20)</t>
+  </si>
+  <si>
+    <t>65.0.2</t>
+  </si>
+  <si>
+    <t>auf 2 tabellen (eine pro technik) aufteilen</t>
   </si>
 </sst>
 </file>
@@ -101,15 +128,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,12 +150,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -403,115 +460,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1"/>
+    <col min="5" max="7" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11" style="1"/>
+    <col min="11" max="11" width="37.453125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>17.171340000000001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>17.171340000000001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>17.171340000000001</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prototype/evaluation.xlsx
+++ b/Prototype/evaluation.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C28D6-462C-47B0-9EC6-B785229BA70B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71869B78-A286-4D46-91FF-EDCE57F36BBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Desktop" sheetId="1" r:id="rId1"/>
+    <sheet name="Mobile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>Jacky/Philipp</t>
   </si>
@@ -37,9 +38,6 @@
     <t>Safari</t>
   </si>
   <si>
-    <t>72.0.3626.109</t>
-  </si>
-  <si>
     <t>NVIDA GTX 1050</t>
   </si>
   <si>
@@ -49,15 +47,9 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Me</t>
   </si>
   <si>
-    <t>65.0.1</t>
-  </si>
-  <si>
     <t>Intel(R) HD Graphics 520</t>
   </si>
   <si>
@@ -91,35 +83,254 @@
     <t>Windows 8</t>
   </si>
   <si>
-    <t>18.03.2019 (09:17)</t>
-  </si>
-  <si>
-    <t>05.03.2019 (10:53)</t>
-  </si>
-  <si>
-    <t>06.03.2019 (09:36)</t>
-  </si>
-  <si>
     <t>72.0.3626.121</t>
   </si>
   <si>
     <t>17.17134</t>
   </si>
   <si>
-    <t>18.03.2019 (09:20)</t>
-  </si>
-  <si>
     <t>65.0.2</t>
   </si>
   <si>
     <t>auf 2 tabellen (eine pro technik) aufteilen</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Dell, 64 bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVIDA GeForce GTX 960 </t>
+  </si>
+  <si>
+    <t>10.29.0.130</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:10)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:12)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:09)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:11)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:14)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:15)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:16)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:42)</t>
+  </si>
+  <si>
+    <t>Lenovo Yoga 530, 64 bit</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>NVIDA GeForce MX 130</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro, Build 1803</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:46)</t>
+  </si>
+  <si>
+    <t>OnePlus 6</t>
+  </si>
+  <si>
+    <t>Windows 10 Enterprise, Build 1803</t>
+  </si>
+  <si>
+    <t>60.5.2esr</t>
+  </si>
+  <si>
+    <t>63.0.3239.84</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>David N</t>
+  </si>
+  <si>
+    <t>Handy</t>
+  </si>
+  <si>
+    <t>Apple A12 GPU</t>
+  </si>
+  <si>
+    <t>Adreno (TM) 630</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:48)</t>
+  </si>
+  <si>
+    <t>18.03.2019 (04:51)</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Android 9, OxygenOS Verson 9.0.4</t>
+  </si>
+  <si>
+    <t>tabellen in desktop/mobile aufteilen</t>
+  </si>
+  <si>
+    <t>iPhone xr</t>
+  </si>
+  <si>
+    <t>iOS 12.1.4</t>
+  </si>
+  <si>
+    <t>Canvas, Browser</t>
+  </si>
+  <si>
+    <t>Duckduck Go, 5.19.0</t>
+  </si>
+  <si>
+    <t>Duckduck Go, 7.16.1</t>
+  </si>
+  <si>
+    <t>Safari, 12.1.4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Linux Arch</t>
+  </si>
+  <si>
+    <t>Paul H.</t>
+  </si>
+  <si>
+    <t>ThinkPad T470p, 64p</t>
+  </si>
+  <si>
+    <t>Mesa DRI Intel(R) HD Graphics 630 (Kaby Lake GT2)</t>
+  </si>
+  <si>
+    <t>73.0.3683.75-2</t>
+  </si>
+  <si>
+    <t>David, LaborPC</t>
+  </si>
+  <si>
+    <t>HP, 64 bin</t>
+  </si>
+  <si>
+    <t>Intel® UHD Graphics 630</t>
+  </si>
+  <si>
+    <t>73.0.3683.86</t>
+  </si>
+  <si>
+    <t>2.4.2019 (10:48</t>
+  </si>
+  <si>
+    <t>2.4.2019 (10:50)</t>
+  </si>
+  <si>
+    <t>2.4.2019 (10:51)</t>
+  </si>
+  <si>
+    <t>17134 Windows 10 Enterprise</t>
+  </si>
+  <si>
+    <t>Paul Haunschmied</t>
+  </si>
+  <si>
+    <t>12.0.3</t>
+  </si>
+  <si>
+    <t>2.4.2019 (11:06)</t>
+  </si>
+  <si>
+    <t>2.4.2019 (11:08)</t>
+  </si>
+  <si>
+    <t>2.4.2019 (11:09)</t>
+  </si>
+  <si>
+    <t>66.0.2</t>
+  </si>
+  <si>
+    <t>Intel Iris Pro OpenGL Engine</t>
+  </si>
+  <si>
+    <t>MacBook Pro, 64 bit</t>
+  </si>
+  <si>
+    <t>2.4.2019 (8:45)</t>
+  </si>
+  <si>
+    <t>2.4.2019 (8:46)</t>
+  </si>
+  <si>
+    <t>18.17763</t>
+  </si>
+  <si>
+    <t>66.02</t>
+  </si>
+  <si>
+    <t>Kommentare:</t>
+  </si>
+  <si>
+    <t>Wenn Browser updated, dann kann es sein, dass der Canvas FP den Browser wieder erkennt, Browser FP allerdings nicht (wegen AUS), beispiel - Firefox bei Philipp PC</t>
+  </si>
+  <si>
+    <t>macOS Mojave Version 10.14.3</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>Huawei Mate 10 Pro</t>
+  </si>
+  <si>
+    <t>2.4.2019 (8:56)</t>
+  </si>
+  <si>
+    <t>Android 9, EMUI 9.0.0</t>
+  </si>
+  <si>
+    <t>Chrome, 73.0.3683.90</t>
+  </si>
+  <si>
+    <t>Jacky</t>
+  </si>
+  <si>
+    <t>Huawei Nova</t>
+  </si>
+  <si>
+    <t>Mali G-72</t>
+  </si>
+  <si>
+    <t>2.4.2019 (9:02)</t>
+  </si>
+  <si>
+    <t>Android 7.0, EMUI 5.0.3</t>
+  </si>
+  <si>
+    <t>Adreno (TM) 506</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +338,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +358,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,16 +394,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -180,6 +447,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -460,204 +738,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="1"/>
+    <col min="3" max="3" width="11" style="1"/>
+    <col min="4" max="4" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11" style="1"/>
+    <col min="8" max="8" width="18.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1"/>
+    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
     <col min="11" max="11" width="37.453125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="15">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="15">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="I26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
-        <v>17.171340000000001</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B19:I19"/>
+  <mergeCells count="23">
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B39:I39"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="C3:C5"/>
@@ -665,8 +1378,193 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A389C1-EF58-4E50-B249-BF7F002F352C}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Prototype/evaluation.xlsx
+++ b/Prototype/evaluation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71869B78-A286-4D46-91FF-EDCE57F36BBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5720B1E-F40F-4E84-BD04-2662C1BB4C4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2280" windowWidth="13700" windowHeight="7810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desktop" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>Jacky/Philipp</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Safari</t>
   </si>
   <si>
-    <t>NVIDA GTX 1050</t>
-  </si>
-  <si>
     <t>Canvas</t>
   </si>
   <si>
@@ -74,15 +71,6 @@
     <t>Windows 10 Home, Build 1803</t>
   </si>
   <si>
-    <t>Nadine</t>
-  </si>
-  <si>
-    <t>Samsung, 64 bit</t>
-  </si>
-  <si>
-    <t>Windows 8</t>
-  </si>
-  <si>
     <t>72.0.3626.121</t>
   </si>
   <si>
@@ -314,9 +302,6 @@
     <t>Huawei Nova</t>
   </si>
   <si>
-    <t>Mali G-72</t>
-  </si>
-  <si>
     <t>2.4.2019 (9:02)</t>
   </si>
   <si>
@@ -324,6 +309,36 @@
   </si>
   <si>
     <t>Adreno (TM) 506</t>
+  </si>
+  <si>
+    <t>NVIDIA GTX 1050</t>
+  </si>
+  <si>
+    <t>Honor 6x</t>
+  </si>
+  <si>
+    <t>Android 7.0</t>
+  </si>
+  <si>
+    <t>22.5 (2:42)</t>
+  </si>
+  <si>
+    <t>Duckduck Go, 5.26.0</t>
+  </si>
+  <si>
+    <t>Chrome, 74.0.3729.157</t>
+  </si>
+  <si>
+    <t>22.5 (2:43)</t>
+  </si>
+  <si>
+    <t>Mali-T830</t>
+  </si>
+  <si>
+    <t>Mali-G72</t>
+  </si>
+  <si>
+    <t>me</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -438,6 +453,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,17 +476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -738,11 +756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -761,13 +779,13 @@
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
@@ -782,148 +800,148 @@
         <v>4</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
+      <c r="C3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H3" s="5"/>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="20">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6" s="6"/>
       <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -957,103 +975,103 @@
       <c r="G14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="B15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="16">
         <v>3</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>26</v>
+      <c r="C16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1062,16 +1080,16 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1080,16 +1098,16 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1112,73 +1130,73 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
-      <c r="B24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="15">
+      <c r="A25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="16">
         <v>5</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" s="3"/>
       <c r="I26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G27" s="3"/>
       <c r="I27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1218,149 +1236,135 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="B32" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
+      <c r="G38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="1">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="H39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B47:J47"/>
+  <mergeCells count="22">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B45:J45"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B36:I36"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
@@ -1370,14 +1374,7 @@
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="B37:I37"/>
     <mergeCell ref="B15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1387,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A389C1-EF58-4E50-B249-BF7F002F352C}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1406,146 +1403,146 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="8">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1557,12 +1554,40 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
